--- a/biology/Médecine/CoronaVac/CoronaVac.xlsx
+++ b/biology/Médecine/CoronaVac/CoronaVac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-CoronaVac est un vaccin à virus inactivé contre la COVID-19 conçu par la société chinoise Sinovac Biotech[1].
+CoronaVac est un vaccin à virus inactivé contre la COVID-19 conçu par la société chinoise Sinovac Biotech.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il utilise une technologie à virus inactivé - plus traditionnelle comparativement à d'autres vaccins développés pour lutter contre la pandémie de Covid-19 - semblable à celle du BBIBP-CorV (chinois) et du BBV152 (indien), deux autres vaccins à virus inactivé utilisés en phase III des essais cliniques[2].
-Ce vaccin est certifié « halal » en Indonésie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il utilise une technologie à virus inactivé - plus traditionnelle comparativement à d'autres vaccins développés pour lutter contre la pandémie de Covid-19 - semblable à celle du BBIBP-CorV (chinois) et du BBV152 (indien), deux autres vaccins à virus inactivé utilisés en phase III des essais cliniques.
+Ce vaccin est certifié « halal » en Indonésie.
 </t>
         </is>
       </c>
@@ -544,14 +558,16 @@
           <t>Essais cliniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au milieu de l'année 2020, le vaccin est en phase III des essais cliniques au Brésil, au Chili, en Indonésie et en Turquie[4],[5].
-Le 25 décembre 2020, les autorités sanitaires de la Turquie annoncent une efficacité de 91 % en se basant sur une analyse intermédiaire (en) des données des essais sur 29 patients parmi 7 371 volontaires[6],[7].
-Le 7 janvier 2021, l'Institut Butantan brésilien annonce que le vaccin est efficace à 78 % pour les infections légères dans une étude portant sur 13 000 volontaires[8]. À la suite d'essais cliniques réalisés au Brésil sur 12 500 volontaires travaillant dans le milieu hospitalier, en contact fréquent avec le virus donc, le vaccin montre « une efficacité globale de 50,38% » selon un communiqué de l'Institut Butantan publié le 12 janvier. Toujours selon l'institut, le vaccin remplit l'exigence d'une efficacité supérieure à 50 % exigée par l'OMS pour recevoir une homologation de cet organisme[9].
-Le 10 avril 2021, Gao Fu, directeur du centre chinois de contrôle et de prévention des maladies, indique que les vaccins chinois  « n’ont pas des taux de protection très élevés ». Selon des chercheurs brésiliens, le vaccin de Sinovac ne dépasserait pas 50,4 % d'efficacité contre 97 % pour le vaccin Pfizer-BioNTech[10].
-Selon une publication du 17 juillet 2021 dans the lancet, le CoronaVac a une efficacité de 83,5 % (IC de 95 % : 64,5-92,1 %) pour prévenir les formes symptomatiques de la maladie, et à 100 % pour prévenir les hospitalisations. Le vaccin a été bien toléré, avec la fatigue et des douleurs au site d'injection comme effets secondaires les plus fréquents[11].
-Le 1er juin, l'OMS valide le CoronaVac pour une utilisation d’urgence. Le vaccin prévient les formes symptomatiques de la COVID-19 chez 51 % des sujets vaccinés et évite les formes graves et l’hospitalisation dans 100 % de la population étudiée[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au milieu de l'année 2020, le vaccin est en phase III des essais cliniques au Brésil, au Chili, en Indonésie et en Turquie,.
+Le 25 décembre 2020, les autorités sanitaires de la Turquie annoncent une efficacité de 91 % en se basant sur une analyse intermédiaire (en) des données des essais sur 29 patients parmi 7 371 volontaires,.
+Le 7 janvier 2021, l'Institut Butantan brésilien annonce que le vaccin est efficace à 78 % pour les infections légères dans une étude portant sur 13 000 volontaires. À la suite d'essais cliniques réalisés au Brésil sur 12 500 volontaires travaillant dans le milieu hospitalier, en contact fréquent avec le virus donc, le vaccin montre « une efficacité globale de 50,38% » selon un communiqué de l'Institut Butantan publié le 12 janvier. Toujours selon l'institut, le vaccin remplit l'exigence d'une efficacité supérieure à 50 % exigée par l'OMS pour recevoir une homologation de cet organisme.
+Le 10 avril 2021, Gao Fu, directeur du centre chinois de contrôle et de prévention des maladies, indique que les vaccins chinois  « n’ont pas des taux de protection très élevés ». Selon des chercheurs brésiliens, le vaccin de Sinovac ne dépasserait pas 50,4 % d'efficacité contre 97 % pour le vaccin Pfizer-BioNTech.
+Selon une publication du 17 juillet 2021 dans the lancet, le CoronaVac a une efficacité de 83,5 % (IC de 95 % : 64,5-92,1 %) pour prévenir les formes symptomatiques de la maladie, et à 100 % pour prévenir les hospitalisations. Le vaccin a été bien toléré, avec la fatigue et des douleurs au site d'injection comme effets secondaires les plus fréquents.
+Le 1er juin, l'OMS valide le CoronaVac pour une utilisation d’urgence. Le vaccin prévient les formes symptomatiques de la COVID-19 chez 51 % des sujets vaccinés et évite les formes graves et l’hospitalisation dans 100 % de la population étudiée.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Vaccination</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Brésil, qui a reçu 10,7 millions de doses au 13 janvier 2021, a commencé sa campagne de vaccination le 25 janvier[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Brésil, qui a reçu 10,7 millions de doses au 13 janvier 2021, a commencé sa campagne de vaccination le 25 janvier.
 </t>
         </is>
       </c>
